--- a/biology/Zoologie/Carbinea_longiscapa/Carbinea_longiscapa.xlsx
+++ b/biology/Zoologie/Carbinea_longiscapa/Carbinea_longiscapa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carbinea longiscapa est une espèce d'araignées aranéomorphes de la famille des Stiphidiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carbinea longiscapa est une espèce d'araignées aranéomorphes de la famille des Stiphidiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1]. Elle se rencontre dans le Carbine Tableland[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie. Elle se rencontre dans le Carbine Tableland.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace de la femelle holotype mesure 1,8 mm de long sur 1,3 mm de large, son abdomen 2,0 mm de long. La carapace du mâle paratype mesure 1,8 mm de long sur 1,3 mm de large, son abdomen 1,9 mm de long[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace de la femelle holotype mesure 1,8 mm de long sur 1,3 mm de large, son abdomen 2,0 mm de long. La carapace du mâle paratype mesure 1,8 mm de long sur 1,3 mm de large, son abdomen 1,9 mm de long.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Davies, 1999 : Carbinea, a new spider genus from north Queensland, Australia (Araneae, Amaurobioidea, Kababininae). Journal of Arachnology, vol. 27, p. 25-36 (texte intégral).</t>
         </is>
